--- a/Objects/PGS7-0-47_20250821-BurnFile/PGS7_FW_ChangeNote.xlsx
+++ b/Objects/PGS7-0-47_20250821-BurnFile/PGS7_FW_ChangeNote.xlsx
@@ -1482,7 +1482,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
